--- a/TIR_TP_222_2025_2_JLTC.xlsx
+++ b/TIR_TP_222_2025_2_JLTC.xlsx
@@ -103,8 +103,8 @@
   <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;Bs. F.&quot;\ #,##0.00;[Red]&quot;Bs. F.&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="0.00000000%"/>
-    <numFmt numFmtId="169" formatCode="0.0000000000"/>
-    <numFmt numFmtId="186" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -232,11 +232,11 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2344,15 +2344,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2796,10 +2796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2947,13 +2947,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
